--- a/fedelemflowlist/input/Contexts.xlsx
+++ b/fedelemflowlist/input/Contexts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321CB97-88D3-44AB-9986-043AC6E9006A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCFDEEAE-B730-43BB-926D-28A9A96BE99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Contexts" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contexts!$A$1:$J$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contexts!$A$1:$J$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="121">
   <si>
     <t>Emission</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Wetland</t>
-  </si>
-  <si>
-    <t>Barren Lands</t>
   </si>
   <si>
     <t>Shrubland</t>
@@ -602,9 +599,6 @@
     <t>Federal LCA Commons Elementary Flow Contexts and Compartments</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Directionality</t>
   </si>
   <si>
@@ -615,6 +609,9 @@
   </si>
   <si>
     <t>External Reference</t>
+  </si>
+  <si>
+    <t>Barren Land</t>
   </si>
 </sst>
 </file>
@@ -961,12 +958,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1318,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC7D69-E032-4DF9-BBF2-5655F089E63F}">
   <dimension ref="B1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1330,7 +1327,7 @@
     <row r="1" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:2" ht="57" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -1338,37 +1335,37 @@
     </row>
     <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15" x14ac:dyDescent="0.25">
@@ -1382,12 +1379,12 @@
     </row>
     <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1415,7 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FC7AB3-E021-4690-8E60-E4B9F10A397C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1429,34 +1428,34 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1464,13 +1463,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1491,93 +1490,93 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="43"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1611,47 +1610,47 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,11 +1671,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1685,70 +1684,70 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -1770,11 +1769,11 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1786,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -1795,10 +1794,10 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -1810,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -1822,11 +1821,11 @@
         <v>10</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -1848,11 +1847,11 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1864,44 +1863,44 @@
         <v>17</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,27 +1909,27 @@
         <v>16</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -1940,11 +1939,11 @@
         <v>15</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -1966,7 +1965,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1980,11 +1979,11 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -1994,25 +1993,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -2037,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2050,23 +2049,23 @@
         <v>14</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -2090,10 +2089,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2103,49 +2102,49 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2173,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2183,28 +2182,28 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F65" s="8"/>
     </row>
@@ -2241,29 +2240,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>12</v>
@@ -2272,16 +2272,16 @@
         <v>11</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>14</v>
@@ -2290,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,28 +2301,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,28 +2333,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,28 +2365,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,28 +2397,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,28 +2429,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,25 +2461,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>47</v>
@@ -2493,25 +2493,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>48</v>
@@ -2525,28 +2525,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,28 +2557,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,28 +2589,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,28 +2621,28 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
         <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,28 +2653,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,28 +2685,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2717,27 +2717,27 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2749,27 +2749,27 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2781,28 +2781,28 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2813,28 +2813,28 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2845,28 +2845,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2877,28 +2877,28 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,28 +2909,28 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,28 +2941,28 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2970,31 +2970,31 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3002,31 +3002,31 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
         <v>44</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,31 +3034,31 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,31 +3066,31 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,31 +3098,31 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3130,31 +3130,31 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3162,31 +3162,31 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3194,31 +3194,31 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,31 +3226,31 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3258,31 +3258,31 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3290,31 +3290,31 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,31 +3322,31 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3357,28 +3357,28 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,28 +3389,28 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3421,28 +3421,28 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3453,28 +3453,28 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3485,28 +3485,28 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3517,28 +3517,28 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3549,28 +3549,28 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,28 +3581,28 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3613,28 +3613,28 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3645,28 +3645,28 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3677,28 +3677,28 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3709,28 +3709,28 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3741,28 +3741,28 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3773,28 +3773,28 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,31 +3802,31 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,31 +3834,31 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3866,31 +3866,31 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3898,31 +3898,31 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,31 +3930,31 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3962,31 +3962,31 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,31 +3994,31 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4026,31 +4026,31 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4058,31 +4058,31 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -4090,31 +4090,31 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -4122,31 +4122,31 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -4154,31 +4154,31 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4189,28 +4189,28 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4221,28 +4221,28 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4253,28 +4253,28 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4285,28 +4285,28 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4317,28 +4317,28 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4349,28 +4349,28 @@
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4381,28 +4381,28 @@
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4413,28 +4413,28 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4445,28 +4445,28 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4477,28 +4477,28 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,28 +4509,28 @@
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4541,28 +4541,28 @@
         <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4573,28 +4573,28 @@
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4605,28 +4605,28 @@
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4637,28 +4637,28 @@
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4669,28 +4669,28 @@
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4701,28 +4701,28 @@
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4733,412 +4733,412 @@
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5146,31 +5146,31 @@
         <v>1</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5178,63 +5178,63 @@
         <v>1</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5242,31 +5242,31 @@
         <v>1</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -5277,28 +5277,28 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I95" t="s">
-        <v>44</v>
-      </c>
-      <c r="J95" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5309,28 +5309,28 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
-      </c>
-      <c r="J96" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,28 +5341,28 @@
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
-      </c>
-      <c r="J97" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,28 +5373,28 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I98" t="s">
-        <v>46</v>
-      </c>
-      <c r="J98" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5405,28 +5405,28 @@
         <v>3</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5437,28 +5437,28 @@
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I100" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5469,28 +5469,28 @@
         <v>3</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5501,28 +5501,28 @@
         <v>3</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5533,28 +5533,28 @@
         <v>3</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5565,31 +5565,31 @@
         <v>3</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
@@ -5597,28 +5597,28 @@
         <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5629,28 +5629,28 @@
         <v>3</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5661,28 +5661,28 @@
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5693,28 +5693,28 @@
         <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5722,31 +5722,31 @@
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5754,31 +5754,31 @@
         <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5786,31 +5786,31 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5818,31 +5818,31 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5850,31 +5850,31 @@
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5882,31 +5882,31 @@
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5914,31 +5914,31 @@
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5946,31 +5946,31 @@
         <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5978,31 +5978,31 @@
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -6010,31 +6010,31 @@
         <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,31 +6042,31 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6074,31 +6074,31 @@
         <v>1</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6109,28 +6109,28 @@
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I121" t="s">
-        <v>46</v>
-      </c>
-      <c r="J121" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6141,28 +6141,28 @@
         <v>4</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6173,28 +6173,28 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6205,28 +6205,28 @@
         <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I124" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6237,28 +6237,28 @@
         <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>22</v>
+      <c r="E125" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I125" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6269,28 +6269,28 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I126" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -6301,28 +6301,28 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6333,28 +6333,28 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I128" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="22" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -6365,28 +6365,28 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I129" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -6397,31 +6397,31 @@
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
@@ -6429,28 +6429,28 @@
         <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -6461,28 +6461,28 @@
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I132" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6493,31 +6493,31 @@
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I133" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
@@ -6525,28 +6525,28 @@
         <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -6557,28 +6557,28 @@
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -6589,28 +6589,28 @@
         <v>4</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -6621,28 +6621,28 @@
         <v>4</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I137" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -6653,28 +6653,28 @@
         <v>4</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I138" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -6685,28 +6685,28 @@
         <v>4</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I139" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -6714,31 +6714,31 @@
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -6746,31 +6746,31 @@
         <v>1</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -6778,63 +6778,63 @@
         <v>1</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I142" t="s">
-        <v>22</v>
-      </c>
-      <c r="J142" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6842,31 +6842,31 @@
         <v>1</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6874,63 +6874,63 @@
         <v>1</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J145" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6938,31 +6938,31 @@
         <v>1</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6970,31 +6970,31 @@
         <v>1</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -7002,31 +7002,31 @@
         <v>1</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7034,31 +7034,31 @@
         <v>1</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7066,31 +7066,31 @@
         <v>1</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -7101,28 +7101,28 @@
         <v>5</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152" t="s">
-        <v>22</v>
-      </c>
-      <c r="J152" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -7133,28 +7133,28 @@
         <v>5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I153" t="s">
-        <v>22</v>
-      </c>
-      <c r="J153" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -7165,151 +7165,415 @@
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="A155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="A156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I156" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
+      <c r="A158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="A159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I161" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I163" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I164" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I165" t="s">
+        <v>21</v>
+      </c>
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7319,7 +7583,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7329,7 +7593,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7339,7 +7603,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7349,7 +7613,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7359,7 +7623,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7369,7 +7633,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7379,7 +7643,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7389,7 +7653,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7399,7 +7663,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7424,7 +7688,7 @@
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="22"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -7544,7 +7808,7 @@
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -7624,7 +7888,7 @@
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="22"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
@@ -7639,6 +7903,126 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
